--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fbln1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,19 +85,19 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fbln1</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fbln1</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2829085</v>
+        <v>0.368252</v>
       </c>
       <c r="H2">
-        <v>0.565817</v>
+        <v>0.736504</v>
       </c>
       <c r="I2">
-        <v>0.01886209596349162</v>
+        <v>0.02659103196893819</v>
       </c>
       <c r="J2">
-        <v>0.01336522687405121</v>
+        <v>0.01852992872922414</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>46.56030873124925</v>
+        <v>74.22331007438601</v>
       </c>
       <c r="R2">
-        <v>186.241234924997</v>
+        <v>296.893240297544</v>
       </c>
       <c r="S2">
-        <v>0.004377450106204446</v>
+        <v>0.007484526290638314</v>
       </c>
       <c r="T2">
-        <v>0.002413222730773225</v>
+        <v>0.004209030687668166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2829085</v>
+        <v>0.368252</v>
       </c>
       <c r="H3">
-        <v>0.565817</v>
+        <v>0.736504</v>
       </c>
       <c r="I3">
-        <v>0.01886209596349162</v>
+        <v>0.02659103196893819</v>
       </c>
       <c r="J3">
-        <v>0.01336522687405121</v>
+        <v>0.01852992872922414</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>33.599437887988</v>
+        <v>43.735201314656</v>
       </c>
       <c r="R3">
-        <v>201.596627327928</v>
+        <v>262.411207887936</v>
       </c>
       <c r="S3">
-        <v>0.003158910818228083</v>
+        <v>0.004410167961221985</v>
       </c>
       <c r="T3">
-        <v>0.002612190386897384</v>
+        <v>0.00372018179222092</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
       <c r="E4">
         <v>2</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2829085</v>
+        <v>0.368252</v>
       </c>
       <c r="H4">
-        <v>0.565817</v>
+        <v>0.736504</v>
       </c>
       <c r="I4">
-        <v>0.01886209596349162</v>
+        <v>0.02659103196893819</v>
       </c>
       <c r="J4">
-        <v>0.01336522687405121</v>
+        <v>0.01852992872922414</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>23.9148091569345</v>
+        <v>28.58111952162534</v>
       </c>
       <c r="R4">
-        <v>143.488854941607</v>
+        <v>171.486717129752</v>
       </c>
       <c r="S4">
-        <v>0.002248393250314111</v>
+        <v>0.00288206144755732</v>
       </c>
       <c r="T4">
-        <v>0.001859258324275814</v>
+        <v>0.002431152875704484</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2829085</v>
+        <v>0.368252</v>
       </c>
       <c r="H5">
-        <v>0.565817</v>
+        <v>0.736504</v>
       </c>
       <c r="I5">
-        <v>0.01886209596349162</v>
+        <v>0.02659103196893819</v>
       </c>
       <c r="J5">
-        <v>0.01336522687405121</v>
+        <v>0.01852992872922414</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>39.58123724729825</v>
+        <v>63.353978886858</v>
       </c>
       <c r="R5">
-        <v>158.324948989193</v>
+        <v>253.415915547432</v>
       </c>
       <c r="S5">
-        <v>0.003721300307349578</v>
+        <v>0.006388485236242084</v>
       </c>
       <c r="T5">
-        <v>0.002051497166581292</v>
+        <v>0.003592656283496695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>2</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2829085</v>
+        <v>0.368252</v>
       </c>
       <c r="H6">
-        <v>0.565817</v>
+        <v>0.736504</v>
       </c>
       <c r="I6">
-        <v>0.01886209596349162</v>
+        <v>0.02659103196893819</v>
       </c>
       <c r="J6">
-        <v>0.01336522687405121</v>
+        <v>0.01852992872922414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>34.439380776514</v>
+        <v>22.04071653628133</v>
       </c>
       <c r="R6">
-        <v>206.636284659084</v>
+        <v>132.244299217688</v>
       </c>
       <c r="S6">
-        <v>0.003237879540446115</v>
+        <v>0.002222540630631783</v>
       </c>
       <c r="T6">
-        <v>0.002677491798970556</v>
+        <v>0.001874816392311861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2829085</v>
+        <v>0.368252</v>
       </c>
       <c r="H7">
-        <v>0.565817</v>
+        <v>0.736504</v>
       </c>
       <c r="I7">
-        <v>0.01886209596349162</v>
+        <v>0.02659103196893819</v>
       </c>
       <c r="J7">
-        <v>0.01336522687405121</v>
+        <v>0.01852992872922414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>22.52961690496417</v>
+        <v>31.76631875539467</v>
       </c>
       <c r="R7">
-        <v>135.177701429785</v>
+        <v>190.597912532368</v>
       </c>
       <c r="S7">
-        <v>0.002118161940949285</v>
+        <v>0.003203250402646707</v>
       </c>
       <c r="T7">
-        <v>0.001751566466552943</v>
+        <v>0.002702090697822014</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>36.147803</v>
       </c>
       <c r="I8">
-        <v>0.8033496449150993</v>
+        <v>0.8700630593360703</v>
       </c>
       <c r="J8">
-        <v>0.8538513125153698</v>
+        <v>0.9094535987693678</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>1983.035584103904</v>
+        <v>2428.599247776722</v>
       </c>
       <c r="R8">
-        <v>11898.21350462342</v>
+        <v>14571.59548666033</v>
       </c>
       <c r="S8">
-        <v>0.1864386118732233</v>
+        <v>0.2448949649536318</v>
       </c>
       <c r="T8">
-        <v>0.1541712247371722</v>
+        <v>0.2065802930042245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>36.147803</v>
       </c>
       <c r="I9">
-        <v>0.8033496449150993</v>
+        <v>0.8700630593360703</v>
       </c>
       <c r="J9">
-        <v>0.8538513125153698</v>
+        <v>0.9094535987693678</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
         <v>1431.023177323794</v>
@@ -1013,10 +1013,10 @@
         <v>12879.20859591415</v>
       </c>
       <c r="S9">
-        <v>0.1345401851975433</v>
+        <v>0.1443014409147033</v>
       </c>
       <c r="T9">
-        <v>0.1668824787944873</v>
+        <v>0.1825874653082518</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>36.147803</v>
       </c>
       <c r="I10">
-        <v>0.8033496449150993</v>
+        <v>0.8700630593360703</v>
       </c>
       <c r="J10">
-        <v>0.8538513125153698</v>
+        <v>0.9094535987693678</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>1018.548176280157</v>
+        <v>935.179060341982</v>
       </c>
       <c r="R10">
-        <v>9166.933586521411</v>
+        <v>8416.611543077839</v>
       </c>
       <c r="S10">
-        <v>0.0957606155098252</v>
+        <v>0.09430153757046517</v>
       </c>
       <c r="T10">
-        <v>0.1187806369056289</v>
+        <v>0.1193215993583866</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>36.147803</v>
       </c>
       <c r="I11">
-        <v>0.8033496449150993</v>
+        <v>0.8700630593360703</v>
       </c>
       <c r="J11">
-        <v>0.8538513125153698</v>
+        <v>0.9094535987693678</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>1685.792127739298</v>
+        <v>2072.952894637641</v>
       </c>
       <c r="R11">
-        <v>10114.75276643579</v>
+        <v>12437.71736782585</v>
       </c>
       <c r="S11">
-        <v>0.158492740484305</v>
+        <v>0.2090323164464255</v>
       </c>
       <c r="T11">
-        <v>0.1310620137476228</v>
+        <v>0.1763284810164652</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>36.147803</v>
       </c>
       <c r="I12">
-        <v>0.8033496449150993</v>
+        <v>0.8700630593360703</v>
       </c>
       <c r="J12">
-        <v>0.8538513125153698</v>
+        <v>0.9094535987693678</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>1466.79692285835</v>
+        <v>721.1759694741099</v>
       </c>
       <c r="R12">
-        <v>13201.17230572515</v>
+        <v>6490.58372526699</v>
       </c>
       <c r="S12">
-        <v>0.1379035174102542</v>
+        <v>0.07272190499583026</v>
       </c>
       <c r="T12">
-        <v>0.1710543268995157</v>
+        <v>0.09201646374012887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>36.147803</v>
       </c>
       <c r="I13">
-        <v>0.8033496449150993</v>
+        <v>0.8700630593360703</v>
       </c>
       <c r="J13">
-        <v>0.8538513125153698</v>
+        <v>0.9094535987693678</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>959.5518852044795</v>
+        <v>1039.399317501069</v>
       </c>
       <c r="R13">
-        <v>8635.966966840315</v>
+        <v>9354.593857509624</v>
       </c>
       <c r="S13">
-        <v>0.09021397443994837</v>
+        <v>0.1048108944550143</v>
       </c>
       <c r="T13">
-        <v>0.111900631430943</v>
+        <v>0.1326192963419108</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.378434</v>
+        <v>1.4312095</v>
       </c>
       <c r="H14">
-        <v>4.756868</v>
+        <v>2.862419</v>
       </c>
       <c r="I14">
-        <v>0.1585751235852978</v>
+        <v>0.1033459086949916</v>
       </c>
       <c r="J14">
-        <v>0.1123625130208429</v>
+        <v>0.07201647250140805</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>391.436175784397</v>
+        <v>288.4685120512773</v>
       </c>
       <c r="R14">
-        <v>1565.744703137588</v>
+        <v>1153.874048205109</v>
       </c>
       <c r="S14">
-        <v>0.03680156717065858</v>
+        <v>0.02908857285272399</v>
       </c>
       <c r="T14">
-        <v>0.02028815321011523</v>
+        <v>0.01635837607394451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.378434</v>
+        <v>1.4312095</v>
       </c>
       <c r="H15">
-        <v>4.756868</v>
+        <v>2.862419</v>
       </c>
       <c r="I15">
-        <v>0.1585751235852978</v>
+        <v>0.1033459086949916</v>
       </c>
       <c r="J15">
-        <v>0.1123625130208429</v>
+        <v>0.07201647250140805</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>282.4731157023519</v>
+        <v>169.976634494716</v>
       </c>
       <c r="R15">
-        <v>1694.838694214112</v>
+        <v>1019.859806968296</v>
       </c>
       <c r="S15">
-        <v>0.02655721158269013</v>
+        <v>0.01714009505093397</v>
       </c>
       <c r="T15">
-        <v>0.02196088993674596</v>
+        <v>0.01445846736135474</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,14 +1396,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
       <c r="E16">
         <v>2</v>
       </c>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.378434</v>
+        <v>1.4312095</v>
       </c>
       <c r="H16">
-        <v>4.756868</v>
+        <v>2.862419</v>
       </c>
       <c r="I16">
-        <v>0.1585751235852978</v>
+        <v>0.1033459086949916</v>
       </c>
       <c r="J16">
-        <v>0.1123625130208429</v>
+        <v>0.07201647250140805</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>201.053680615338</v>
+        <v>111.0803737114412</v>
       </c>
       <c r="R16">
-        <v>1206.322083692028</v>
+        <v>666.482242268647</v>
       </c>
       <c r="S16">
-        <v>0.01890241881003077</v>
+        <v>0.01120111696155836</v>
       </c>
       <c r="T16">
-        <v>0.0156309308954684</v>
+        <v>0.009448663121070833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.378434</v>
+        <v>1.4312095</v>
       </c>
       <c r="H17">
-        <v>4.756868</v>
+        <v>2.862419</v>
       </c>
       <c r="I17">
-        <v>0.1585751235852978</v>
+        <v>0.1033459086949916</v>
       </c>
       <c r="J17">
-        <v>0.1123625130208429</v>
+        <v>0.07201647250140805</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>332.762573167793</v>
+        <v>246.2249124123443</v>
       </c>
       <c r="R17">
-        <v>1331.050292671172</v>
+        <v>984.899649649377</v>
       </c>
       <c r="S17">
-        <v>0.03128526422928504</v>
+        <v>0.02482881494389552</v>
       </c>
       <c r="T17">
-        <v>0.01724709795534813</v>
+        <v>0.01396284012897462</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,14 +1520,14 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
       <c r="E18">
         <v>2</v>
       </c>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.378434</v>
+        <v>1.4312095</v>
       </c>
       <c r="H18">
-        <v>4.756868</v>
+        <v>2.862419</v>
       </c>
       <c r="I18">
-        <v>0.1585751235852978</v>
+        <v>0.1033459086949916</v>
       </c>
       <c r="J18">
-        <v>0.1123625130208429</v>
+        <v>0.07201647250140805</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>289.534581597256</v>
+        <v>85.66113121865716</v>
       </c>
       <c r="R18">
-        <v>1737.207489583536</v>
+        <v>513.966787311943</v>
       </c>
       <c r="S18">
-        <v>0.02722110783840504</v>
+        <v>0.008637892705799829</v>
       </c>
       <c r="T18">
-        <v>0.02250988404163444</v>
+        <v>0.007286464245767744</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.378434</v>
+        <v>1.4312095</v>
       </c>
       <c r="H19">
-        <v>4.756868</v>
+        <v>2.862419</v>
       </c>
       <c r="I19">
-        <v>0.1585751235852978</v>
+        <v>0.1033459086949916</v>
       </c>
       <c r="J19">
-        <v>0.1123625130208429</v>
+        <v>0.07201647250140805</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,772 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>189.4082604578567</v>
+        <v>123.4596341167163</v>
       </c>
       <c r="R19">
-        <v>1136.44956274714</v>
+        <v>740.7578047002979</v>
       </c>
       <c r="S19">
-        <v>0.01780755395422821</v>
+        <v>0.01244941618007992</v>
       </c>
       <c r="T19">
-        <v>0.01472555698153071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>0.2614483333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.7843450000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.01743130218013343</v>
-      </c>
-      <c r="J20">
-        <v>0.01852710129339999</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>164.5772705</v>
-      </c>
-      <c r="N20">
-        <v>329.154541</v>
-      </c>
-      <c r="O20">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P20">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q20">
-        <v>43.02845307677417</v>
-      </c>
-      <c r="R20">
-        <v>258.170718460645</v>
-      </c>
-      <c r="S20">
-        <v>0.004045396425052536</v>
-      </c>
-      <c r="T20">
-        <v>0.003345249758788311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.2614483333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.7843450000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.01743130218013343</v>
-      </c>
-      <c r="J21">
-        <v>0.01852710129339999</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>118.764328</v>
-      </c>
-      <c r="N21">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O21">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P21">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q21">
-        <v>31.05073561505333</v>
-      </c>
-      <c r="R21">
-        <v>279.45662053548</v>
-      </c>
-      <c r="S21">
-        <v>0.002919290048105195</v>
-      </c>
-      <c r="T21">
-        <v>0.00362106205541903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0.2614483333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.7843450000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.01743130218013343</v>
-      </c>
-      <c r="J22">
-        <v>0.01852710129339999</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N22">
-        <v>253.595871</v>
-      </c>
-      <c r="O22">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P22">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q22">
-        <v>22.100739271055</v>
-      </c>
-      <c r="R22">
-        <v>198.906653439495</v>
-      </c>
-      <c r="S22">
-        <v>0.002077840248605257</v>
-      </c>
-      <c r="T22">
-        <v>0.002577335022373158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>0.2614483333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.7843450000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.01743130218013343</v>
-      </c>
-      <c r="J23">
-        <v>0.01852710129339999</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>139.9082645</v>
-      </c>
-      <c r="N23">
-        <v>279.816529</v>
-      </c>
-      <c r="O23">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P23">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q23">
-        <v>36.57878257308417</v>
-      </c>
-      <c r="R23">
-        <v>219.472695438505</v>
-      </c>
-      <c r="S23">
-        <v>0.003439019199456249</v>
-      </c>
-      <c r="T23">
-        <v>0.002843819724614501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>0.2614483333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.7843450000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.01743130218013343</v>
-      </c>
-      <c r="J24">
-        <v>0.01852710129339999</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>121.733284</v>
-      </c>
-      <c r="N24">
-        <v>365.199852</v>
-      </c>
-      <c r="O24">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P24">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q24">
-        <v>31.82696421299333</v>
-      </c>
-      <c r="R24">
-        <v>286.44267791694</v>
-      </c>
-      <c r="S24">
-        <v>0.002992268558151261</v>
-      </c>
-      <c r="T24">
-        <v>0.003711583966306352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.2614483333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.7843450000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.01743130218013343</v>
-      </c>
-      <c r="J25">
-        <v>0.01852710129339999</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N25">
-        <v>238.907105</v>
-      </c>
-      <c r="O25">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P25">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q25">
-        <v>20.82062147458056</v>
-      </c>
-      <c r="R25">
-        <v>187.385593271225</v>
-      </c>
-      <c r="S25">
-        <v>0.001957487700762929</v>
-      </c>
-      <c r="T25">
-        <v>0.002428050765898635</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.02672533333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.080176</v>
-      </c>
-      <c r="I26">
-        <v>0.001781833355977762</v>
-      </c>
-      <c r="J26">
-        <v>0.001893846296335971</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>164.5772705</v>
-      </c>
-      <c r="N26">
-        <v>329.154541</v>
-      </c>
-      <c r="O26">
-        <v>0.2320765473082729</v>
-      </c>
-      <c r="P26">
-        <v>0.1805598029509348</v>
-      </c>
-      <c r="Q26">
-        <v>4.398382413202667</v>
-      </c>
-      <c r="R26">
-        <v>26.390294479216</v>
-      </c>
-      <c r="S26">
-        <v>0.0004135217331340318</v>
-      </c>
-      <c r="T26">
-        <v>0.0003419525140857806</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G27">
-        <v>0.02672533333333333</v>
-      </c>
-      <c r="H27">
-        <v>0.080176</v>
-      </c>
-      <c r="I27">
-        <v>0.001781833355977762</v>
-      </c>
-      <c r="J27">
-        <v>0.001893846296335971</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>118.764328</v>
-      </c>
-      <c r="N27">
-        <v>356.2929839999999</v>
-      </c>
-      <c r="O27">
-        <v>0.1674740084210306</v>
-      </c>
-      <c r="P27">
-        <v>0.1954467673099505</v>
-      </c>
-      <c r="Q27">
-        <v>3.174016253909333</v>
-      </c>
-      <c r="R27">
-        <v>28.56614628518399</v>
-      </c>
-      <c r="S27">
-        <v>0.000298410774463893</v>
-      </c>
-      <c r="T27">
-        <v>0.000370146136400788</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G28">
-        <v>0.02672533333333333</v>
-      </c>
-      <c r="H28">
-        <v>0.080176</v>
-      </c>
-      <c r="I28">
-        <v>0.001781833355977762</v>
-      </c>
-      <c r="J28">
-        <v>0.001893846296335971</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>84.53195699999999</v>
-      </c>
-      <c r="N28">
-        <v>253.595871</v>
-      </c>
-      <c r="O28">
-        <v>0.1192016653221344</v>
-      </c>
-      <c r="P28">
-        <v>0.1391116171686985</v>
-      </c>
-      <c r="Q28">
-        <v>2.259144728144</v>
-      </c>
-      <c r="R28">
-        <v>20.332302553296</v>
-      </c>
-      <c r="S28">
-        <v>0.0002123975033590768</v>
-      </c>
-      <c r="T28">
-        <v>0.0002634560209522472</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G29">
-        <v>0.02672533333333333</v>
-      </c>
-      <c r="H29">
-        <v>0.080176</v>
-      </c>
-      <c r="I29">
-        <v>0.001781833355977762</v>
-      </c>
-      <c r="J29">
-        <v>0.001893846296335971</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>139.9082645</v>
-      </c>
-      <c r="N29">
-        <v>279.816529</v>
-      </c>
-      <c r="O29">
-        <v>0.1972898618770847</v>
-      </c>
-      <c r="P29">
-        <v>0.1534951247677137</v>
-      </c>
-      <c r="Q29">
-        <v>3.739095004850667</v>
-      </c>
-      <c r="R29">
-        <v>22.434570029104</v>
-      </c>
-      <c r="S29">
-        <v>0.0003515376566888349</v>
-      </c>
-      <c r="T29">
-        <v>0.0002906961735469624</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G30">
-        <v>0.02672533333333333</v>
-      </c>
-      <c r="H30">
-        <v>0.080176</v>
-      </c>
-      <c r="I30">
-        <v>0.001781833355977762</v>
-      </c>
-      <c r="J30">
-        <v>0.001893846296335971</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>121.733284</v>
-      </c>
-      <c r="N30">
-        <v>365.199852</v>
-      </c>
-      <c r="O30">
-        <v>0.1716606440086599</v>
-      </c>
-      <c r="P30">
-        <v>0.2003326860218846</v>
-      </c>
-      <c r="Q30">
-        <v>3.253362592661333</v>
-      </c>
-      <c r="R30">
-        <v>29.280263333952</v>
-      </c>
-      <c r="S30">
-        <v>0.0003058706614032543</v>
-      </c>
-      <c r="T30">
-        <v>0.0003793993154575831</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G31">
-        <v>0.02672533333333333</v>
-      </c>
-      <c r="H31">
-        <v>0.080176</v>
-      </c>
-      <c r="I31">
-        <v>0.001781833355977762</v>
-      </c>
-      <c r="J31">
-        <v>0.001893846296335971</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>79.63570166666668</v>
-      </c>
-      <c r="N31">
-        <v>238.907105</v>
-      </c>
-      <c r="O31">
-        <v>0.1122972730628175</v>
-      </c>
-      <c r="P31">
-        <v>0.1310540017808179</v>
-      </c>
-      <c r="Q31">
-        <v>2.128290672275556</v>
-      </c>
-      <c r="R31">
-        <v>19.15461605048</v>
-      </c>
-      <c r="S31">
-        <v>0.0002000950269286712</v>
-      </c>
-      <c r="T31">
-        <v>0.0002481961358926097</v>
+        <v>0.0105016615702956</v>
       </c>
     </row>
   </sheetData>
